--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_EnCQR-LSTM_General.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_EnCQR-LSTM_General.xlsx
@@ -549,16 +549,16 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.02118963916573668</v>
+        <v>0.05229962507050767</v>
       </c>
       <c r="D2">
-        <v>0.9565530232204114</v>
+        <v>0.9607996369289524</v>
       </c>
       <c r="E2">
-        <v>0.4447046397437453</v>
+        <v>0.2755592418626311</v>
       </c>
       <c r="F2">
-        <v>0.03176213503635061</v>
+        <v>0.1076664472397502</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -566,19 +566,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.02118963916573668</v>
+        <v>0.05229962507050767</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.01273015094790564</v>
+        <v>0.05174229652590956</v>
       </c>
       <c r="E3">
-        <v>0.1652087007476395</v>
+        <v>0.1925068256742337</v>
       </c>
       <c r="F3">
-        <v>0.4279523869198998</v>
+        <v>0.4780249664159233</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -586,19 +586,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9565530232204114</v>
+        <v>0.9607996369289524</v>
       </c>
       <c r="C4">
-        <v>0.01273015094790564</v>
+        <v>0.05174229652590956</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.5577804562928921</v>
+        <v>0.4962014189058628</v>
       </c>
       <c r="F4">
-        <v>0.02000261406392334</v>
+        <v>0.06702413307398336</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -606,19 +606,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4447046397437453</v>
+        <v>0.2755592418626311</v>
       </c>
       <c r="C5">
-        <v>0.1652087007476395</v>
+        <v>0.1925068256742337</v>
       </c>
       <c r="D5">
-        <v>0.5577804562928921</v>
+        <v>0.4962014189058628</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.154112651190323</v>
+        <v>0.217733477186375</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -626,16 +626,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.03176213503635061</v>
+        <v>0.1076664472397502</v>
       </c>
       <c r="C6">
-        <v>0.4279523869198998</v>
+        <v>0.4780249664159233</v>
       </c>
       <c r="D6">
-        <v>0.02000261406392334</v>
+        <v>0.06702413307398336</v>
       </c>
       <c r="E6">
-        <v>0.154112651190323</v>
+        <v>0.217733477186375</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -679,16 +679,16 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-2.307117855577967</v>
+        <v>-2.051604956423864</v>
       </c>
       <c r="D2">
-        <v>0.05448914155562136</v>
+        <v>0.04971305756704497</v>
       </c>
       <c r="E2">
-        <v>-0.7644832761996464</v>
+        <v>-1.118162711753777</v>
       </c>
       <c r="F2">
-        <v>-2.149486779933191</v>
+        <v>-1.677148356360227</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -696,19 +696,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.307117855577967</v>
+        <v>2.051604956423864</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2.494353078114266</v>
+        <v>2.056920129174218</v>
       </c>
       <c r="E3">
-        <v>1.388470515506943</v>
+        <v>1.344436399022186</v>
       </c>
       <c r="F3">
-        <v>-0.7929247327496554</v>
+        <v>-0.7217911936876183</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -716,19 +716,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.05448914155562136</v>
+        <v>-0.04971305756704497</v>
       </c>
       <c r="C4">
-        <v>-2.494353078114266</v>
+        <v>-2.056920129174218</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-0.5862783045181491</v>
+        <v>-0.691959674395921</v>
       </c>
       <c r="F4">
-        <v>-2.328892888303978</v>
+        <v>-1.926760552702913</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -736,19 +736,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7644832761996464</v>
+        <v>1.118162711753777</v>
       </c>
       <c r="C5">
-        <v>-1.388470515506943</v>
+        <v>-1.344436399022186</v>
       </c>
       <c r="D5">
-        <v>0.5862783045181491</v>
+        <v>0.691959674395921</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-1.425905011699855</v>
+        <v>-1.268913754878327</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -756,16 +756,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.149486779933191</v>
+        <v>1.677148356360227</v>
       </c>
       <c r="C6">
-        <v>0.7929247327496554</v>
+        <v>0.7217911936876183</v>
       </c>
       <c r="D6">
-        <v>2.328892888303978</v>
+        <v>1.926760552702913</v>
       </c>
       <c r="E6">
-        <v>1.425905011699855</v>
+        <v>1.268913754878327</v>
       </c>
       <c r="F6">
         <v>0</v>

--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_EnCQR-LSTM_General.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_EnCQR-LSTM_General.xlsx
@@ -549,16 +549,16 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.05229962507050767</v>
+        <v>0.3396922597542145</v>
       </c>
       <c r="D2">
-        <v>0.9607996369289524</v>
+        <v>0.1062243333502897</v>
       </c>
       <c r="E2">
-        <v>0.2755592418626311</v>
+        <v>0.9274480368170999</v>
       </c>
       <c r="F2">
-        <v>0.1076664472397502</v>
+        <v>0.5781599068797649</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -566,19 +566,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.05229962507050767</v>
+        <v>0.3396922597542145</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.05174229652590956</v>
+        <v>0.8232016596499989</v>
       </c>
       <c r="E3">
-        <v>0.1925068256742337</v>
+        <v>0.2611856883090087</v>
       </c>
       <c r="F3">
-        <v>0.4780249664159233</v>
+        <v>0.3022573844511021</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -586,19 +586,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9607996369289524</v>
+        <v>0.1062243333502897</v>
       </c>
       <c r="C4">
-        <v>0.05174229652590956</v>
+        <v>0.8232016596499989</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.4962014189058628</v>
+        <v>0.2210821752152972</v>
       </c>
       <c r="F4">
-        <v>0.06702413307398336</v>
+        <v>0.2397958121422046</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -606,19 +606,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2755592418626311</v>
+        <v>0.9274480368170999</v>
       </c>
       <c r="C5">
-        <v>0.1925068256742337</v>
+        <v>0.2611856883090087</v>
       </c>
       <c r="D5">
-        <v>0.4962014189058628</v>
+        <v>0.2210821752152972</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.217733477186375</v>
+        <v>0.7776302602869323</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -626,16 +626,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1076664472397502</v>
+        <v>0.5781599068797649</v>
       </c>
       <c r="C6">
-        <v>0.4780249664159233</v>
+        <v>0.3022573844511021</v>
       </c>
       <c r="D6">
-        <v>0.06702413307398336</v>
+        <v>0.2397958121422046</v>
       </c>
       <c r="E6">
-        <v>0.217733477186375</v>
+        <v>0.7776302602869323</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -679,16 +679,16 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-2.051604956423864</v>
+        <v>0.9683818249149043</v>
       </c>
       <c r="D2">
-        <v>0.04971305756704497</v>
+        <v>1.659442505015841</v>
       </c>
       <c r="E2">
-        <v>-1.118162711753777</v>
+        <v>-0.09173363383065296</v>
       </c>
       <c r="F2">
-        <v>-1.677148356360227</v>
+        <v>-0.5614695651587487</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -696,19 +696,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.051604956423864</v>
+        <v>-0.9683818249149043</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2.056920129174218</v>
+        <v>0.2251613047564528</v>
       </c>
       <c r="E3">
-        <v>1.344436399022186</v>
+        <v>-1.142603662757736</v>
       </c>
       <c r="F3">
-        <v>-0.7217911936876183</v>
+        <v>-1.04750303125809</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -716,19 +716,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.04971305756704497</v>
+        <v>-1.659442505015841</v>
       </c>
       <c r="C4">
-        <v>-2.056920129174218</v>
+        <v>-0.2251613047564528</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-0.691959674395921</v>
+        <v>-1.246551263420708</v>
       </c>
       <c r="F4">
-        <v>-1.926760552702913</v>
+        <v>-1.196455222633745</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -736,19 +736,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.118162711753777</v>
+        <v>0.09173363383065296</v>
       </c>
       <c r="C5">
-        <v>-1.344436399022186</v>
+        <v>1.142603662757736</v>
       </c>
       <c r="D5">
-        <v>0.691959674395921</v>
+        <v>1.246551263420708</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-1.268913754878327</v>
+        <v>-0.2846614031927092</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -756,16 +756,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.677148356360227</v>
+        <v>0.5614695651587487</v>
       </c>
       <c r="C6">
-        <v>0.7217911936876183</v>
+        <v>1.04750303125809</v>
       </c>
       <c r="D6">
-        <v>1.926760552702913</v>
+        <v>1.196455222633745</v>
       </c>
       <c r="E6">
-        <v>1.268913754878327</v>
+        <v>0.2846614031927092</v>
       </c>
       <c r="F6">
         <v>0</v>
